--- a/Base/Teams/Cardinals/Target Depth Data.xlsx
+++ b/Base/Teams/Cardinals/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C3">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D3">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="C3">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="D3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>3</v>

--- a/Base/Teams/Cardinals/Target Depth Data.xlsx
+++ b/Base/Teams/Cardinals/Target Depth Data.xlsx
@@ -427,19 +427,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>367</v>
+        <v>403</v>
       </c>
       <c r="C2">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="D2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="C2">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>5</v>

--- a/Base/Teams/Cardinals/Target Depth Data.xlsx
+++ b/Base/Teams/Cardinals/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="C3">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="C3">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="D3">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F3">
         <v>8</v>

--- a/Base/Teams/Cardinals/Target Depth Data.xlsx
+++ b/Base/Teams/Cardinals/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="C2">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="D2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="C2">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="D2">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>5</v>

--- a/Base/Teams/Cardinals/Target Depth Data.xlsx
+++ b/Base/Teams/Cardinals/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>407</v>
+        <v>435</v>
       </c>
       <c r="C3">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="D3">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -529,19 +529,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="C3">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D3">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3">
         <v>3</v>

--- a/Base/Teams/Cardinals/Target Depth Data.xlsx
+++ b/Base/Teams/Cardinals/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="C2">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="C3">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="C2">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D2">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C3">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>9</v>
